--- a/insitu/30mv/insitu-30mv-Layer1-Test2.xlsx
+++ b/insitu/30mv/insitu-30mv-Layer1-Test2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tsubaki/Desktop/Github/zianlab/insitu/30mv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8EB78C-F99B-F845-80EB-230457F6A4F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{075C9215-7683-0346-929D-A162C949ADA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
